--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/SABR/Interpolation Examples v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/SABR/Interpolation Examples v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\SABR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\SABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE7FC84-D7A6-4AFB-98E5-F17D3C06610B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="10080" windowHeight="6795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="285" windowWidth="26370" windowHeight="14820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="26" r:id="rId1"/>
@@ -17,7 +18,15 @@
     <sheet name="Cubic Hermite Spline" sheetId="32" r:id="rId3"/>
     <sheet name="Linear" sheetId="33" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2008,7 +2017,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2462,7 +2471,7 @@
     <row r="32" spans="2:13">
       <c r="B32" s="18" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 12-Feb-18</v>
+        <v>Last Update 02-Jul-19</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -3301,7 +3310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
